--- a/r5-ELGA-MOPED-main/all-profiles.xlsx
+++ b/r5-ELGA-MOPED-main/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T09:32:48+00:00</t>
+    <t>2024-06-19T12:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
